--- a/branches/EpisodeOfCare.ManagingOrganization--FIG-73/StructureDefinition-hiv-organization.xlsx
+++ b/branches/EpisodeOfCare.ManagingOrganization--FIG-73/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:30:18+00:00</t>
+    <t>2023-03-02T13:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
